--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_39.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3760131.296854244</v>
+        <v>3753205.349772703</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847141</v>
+        <v>2310564.14322317</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791245</v>
+        <v>419463.0933791246</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0.4065978342781545</v>
       </c>
       <c r="Y2" t="n">
-        <v>147.9362394883668</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -747,7 +747,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>98.54676348899872</v>
+        <v>118.101442551618</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>192.4518147817243</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>64.17257628986184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>18.25659125753738</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>319.3192223193649</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -978,7 +978,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -987,7 +987,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>131.2953016940626</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>125.0314190580193</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>24.62728190311159</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.1045920014104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>100.9720072494071</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>322.4727500535953</v>
       </c>
     </row>
     <row r="9">
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>211.6928685184853</v>
+        <v>237.0512896770903</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799664</v>
+        <v>44.56354418212931</v>
       </c>
       <c r="C11" t="n">
-        <v>48.25657690305212</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D11" t="n">
-        <v>287.5954430211825</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>304.5664151603044</v>
@@ -1388,7 +1388,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T11" t="n">
         <v>127.274321941861</v>
@@ -1436,7 +1436,7 @@
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C13" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380448</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497641</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049596</v>
@@ -1622,10 +1622,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>38.65591760717377</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>32.51463166023063</v>
       </c>
       <c r="V14" t="n">
         <v>244.6944667292003</v>
@@ -1670,7 +1670,7 @@
         <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
-        <v>291.5668045419573</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>298.5345275142884</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C16" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380448</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497641</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049596</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277472</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2725,7 +2725,7 @@
         <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723237</v>
       </c>
       <c r="H28" t="n">
         <v>59.9324910538045</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003579</v>
+        <v>280.4599644277188</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281737</v>
+        <v>273.2139126555345</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415739</v>
+        <v>265.5568836689348</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806959</v>
+        <v>282.5278558080568</v>
       </c>
       <c r="F32" t="n">
-        <v>303.139122731397</v>
+        <v>296.6956602587578</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029518</v>
+        <v>293.0012941303127</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752492</v>
+        <v>204.8123861026101</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453478</v>
+        <v>20.92391191189566</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443491</v>
+        <v>48.81858568179578</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622525</v>
+        <v>105.2357625896133</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158224</v>
+        <v>137.1653684431832</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495918</v>
+        <v>222.6559073769526</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274704</v>
+        <v>251.2592108548313</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623487</v>
+        <v>269.5282451897095</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346799</v>
+        <v>276.4959681620408</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046323</v>
+        <v>67.32610467782411</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074564</v>
+        <v>52.47323292810651</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258536</v>
+        <v>38.04694813994624</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546448</v>
+        <v>37.97339019282535</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523174</v>
+        <v>39.72284161259262</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762388</v>
+        <v>50.54167953498475</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419592</v>
+        <v>37.8939317015568</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536785</v>
+        <v>15.73364728272873</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982377</v>
+        <v>6.632145647184643</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535109</v>
+        <v>84.75808915271196</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595232</v>
+        <v>117.332027486884</v>
       </c>
       <c r="U34" t="n">
-        <v>172.998032486593</v>
+        <v>166.5545700139539</v>
       </c>
       <c r="V34" t="n">
-        <v>153.733180373459</v>
+        <v>147.2897179008199</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942091</v>
+        <v>164.46726422157</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409217</v>
+        <v>115.7096851682826</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.294569217598</v>
+        <v>104.8511067449589</v>
       </c>
     </row>
     <row r="35">
@@ -3740,10 +3740,10 @@
         <v>300.0229587840511</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7769070118669</v>
+        <v>226.2282001563602</v>
       </c>
       <c r="D41" t="n">
-        <v>285.1198780252671</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>302.0908501643891</v>
@@ -3755,10 +3755,10 @@
         <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>224.3753804589424</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>40.486906268228</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>68.38158003812812</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>124.7987569459457</v>
       </c>
       <c r="U41" t="n">
-        <v>106.3740388304708</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>242.218901733285</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415643</v>
+        <v>86.88909903415644</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443884</v>
+        <v>72.03622728443885</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627856</v>
+        <v>57.60994249627858</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915767</v>
+        <v>57.53638454915769</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892494</v>
+        <v>59.28583596892496</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131708</v>
+        <v>70.10467389131709</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788912</v>
+        <v>57.45692605788913</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906105</v>
+        <v>35.29664163906106</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351697</v>
+        <v>26.19514000351698</v>
       </c>
       <c r="S43" t="n">
         <v>104.3210835090443</v>
@@ -3964,7 +3964,7 @@
         <v>135.2726795246149</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.4141011012912</v>
+        <v>124.4141011012913</v>
       </c>
     </row>
     <row r="44">
@@ -3992,10 +3992,10 @@
         <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>224.3753804589424</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822798</v>
+        <v>40.486906268228</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>65.88713256224338</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V44" t="n">
-        <v>242.218901733285</v>
+        <v>216.0935305831123</v>
       </c>
       <c r="W44" t="n">
         <v>270.8222052111636</v>
       </c>
       <c r="X44" t="n">
-        <v>289.0912395460419</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>296.0589625183731</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415643</v>
+        <v>86.88909903415644</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443884</v>
+        <v>72.03622728443885</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627856</v>
+        <v>57.60994249627858</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915767</v>
+        <v>57.53638454915769</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892494</v>
+        <v>59.28583596892496</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131708</v>
+        <v>70.10467389131709</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788912</v>
+        <v>57.45692605788913</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906105</v>
+        <v>35.29664163906106</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351697</v>
+        <v>26.19514000351698</v>
       </c>
       <c r="S46" t="n">
         <v>104.3210835090443</v>
@@ -4201,7 +4201,7 @@
         <v>135.2726795246149</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.4141011012912</v>
+        <v>124.4141011012913</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>872.5479325190579</v>
+        <v>524.8948791408777</v>
       </c>
       <c r="C2" t="n">
-        <v>872.5479325190579</v>
+        <v>524.8948791408777</v>
       </c>
       <c r="D2" t="n">
-        <v>872.5479325190579</v>
+        <v>524.8948791408777</v>
       </c>
       <c r="E2" t="n">
-        <v>872.5479325190579</v>
+        <v>524.8948791408777</v>
       </c>
       <c r="F2" t="n">
-        <v>455.6534940490357</v>
+        <v>512.0408447112595</v>
       </c>
       <c r="G2" t="n">
-        <v>42.49073853703879</v>
+        <v>502.9184932396668</v>
       </c>
       <c r="H2" t="n">
-        <v>42.49073853703879</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J2" t="n">
-        <v>42.49073853703879</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K2" t="n">
-        <v>401.4730945645006</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L2" t="n">
-        <v>894.7933862830295</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="M2" t="n">
-        <v>1420.616275678884</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="N2" t="n">
-        <v>1420.616275678884</v>
+        <v>1051.843641766314</v>
       </c>
       <c r="O2" t="n">
-        <v>1591.503874579469</v>
+        <v>1491.883242658642</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.691366710991</v>
+        <v>1840.070734790164</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R2" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="S2" t="n">
-        <v>2124.536926851939</v>
+        <v>1858.402739872163</v>
       </c>
       <c r="T2" t="n">
-        <v>2124.536926851939</v>
+        <v>1634.90213743158</v>
       </c>
       <c r="U2" t="n">
-        <v>2124.536926851939</v>
+        <v>1634.90213743158</v>
       </c>
       <c r="V2" t="n">
-        <v>1782.430117555458</v>
+        <v>1292.795328135098</v>
       </c>
       <c r="W2" t="n">
-        <v>1411.431082523745</v>
+        <v>921.7962931033858</v>
       </c>
       <c r="X2" t="n">
-        <v>1021.978477456802</v>
+        <v>921.3855882202765</v>
       </c>
       <c r="Y2" t="n">
-        <v>872.5479325190579</v>
+        <v>524.8948791408777</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>841.8567216770698</v>
+        <v>715.432502921785</v>
       </c>
       <c r="C3" t="n">
-        <v>691.202491237162</v>
+        <v>564.7782724818773</v>
       </c>
       <c r="D3" t="n">
-        <v>561.1135238586423</v>
+        <v>434.6893051033576</v>
       </c>
       <c r="E3" t="n">
-        <v>424.66703296953</v>
+        <v>298.2428142142453</v>
       </c>
       <c r="F3" t="n">
-        <v>300.2352268526618</v>
+        <v>298.2428142142453</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245263</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H3" t="n">
-        <v>91.8779925251272</v>
+        <v>89.88557988671067</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567662</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K3" t="n">
-        <v>475.3448668189926</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="L3" t="n">
-        <v>958.9109527173059</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="M3" t="n">
-        <v>1373.651552706068</v>
+        <v>541.6651088940727</v>
       </c>
       <c r="N3" t="n">
-        <v>1373.651552706068</v>
+        <v>1042.831891889523</v>
       </c>
       <c r="O3" t="n">
-        <v>1890.171835297049</v>
+        <v>1543.998674884973</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297049</v>
+        <v>1790.551203376222</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R3" t="n">
-        <v>2124.536926851939</v>
+        <v>2000.999251829177</v>
       </c>
       <c r="S3" t="n">
-        <v>2124.536926851939</v>
+        <v>1866.068574729046</v>
       </c>
       <c r="T3" t="n">
-        <v>2024.994741509516</v>
+        <v>1746.77418831327</v>
       </c>
       <c r="U3" t="n">
-        <v>1814.931598188158</v>
+        <v>1536.711044991912</v>
       </c>
       <c r="V3" t="n">
-        <v>1592.391596559225</v>
+        <v>1314.171043362979</v>
       </c>
       <c r="W3" t="n">
-        <v>1362.274350692512</v>
+        <v>1084.053797496266</v>
       </c>
       <c r="X3" t="n">
-        <v>1172.967273042524</v>
+        <v>894.7467198462778</v>
       </c>
       <c r="Y3" t="n">
-        <v>993.6530561180311</v>
+        <v>715.432502921785</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>693.9089582561164</v>
+        <v>196.1314389961075</v>
       </c>
       <c r="C4" t="n">
-        <v>523.7038403221056</v>
+        <v>196.1314389961075</v>
       </c>
       <c r="D4" t="n">
-        <v>368.0707272246203</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="E4" t="n">
-        <v>368.0707272246203</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="F4" t="n">
-        <v>210.7447924375932</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="G4" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S4" t="n">
-        <v>943.9377610785913</v>
+        <v>747.5495759333824</v>
       </c>
       <c r="T4" t="n">
-        <v>943.9377610785913</v>
+        <v>747.5495759333824</v>
       </c>
       <c r="U4" t="n">
-        <v>943.9377610785913</v>
+        <v>462.1107841752832</v>
       </c>
       <c r="V4" t="n">
-        <v>943.9377610785913</v>
+        <v>196.1314389961075</v>
       </c>
       <c r="W4" t="n">
-        <v>943.9377610785913</v>
+        <v>196.1314389961075</v>
       </c>
       <c r="X4" t="n">
-        <v>943.9377610785913</v>
+        <v>196.1314389961075</v>
       </c>
       <c r="Y4" t="n">
-        <v>879.1169769474177</v>
+        <v>196.1314389961075</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>545.3282930495341</v>
+        <v>769.0725308347694</v>
       </c>
       <c r="C5" t="n">
-        <v>545.3282930495341</v>
+        <v>375.8970293377</v>
       </c>
       <c r="D5" t="n">
-        <v>545.3282930495341</v>
+        <v>375.8970293377</v>
       </c>
       <c r="E5" t="n">
-        <v>526.8872917792943</v>
+        <v>375.8970293377</v>
       </c>
       <c r="F5" t="n">
-        <v>514.0332573496761</v>
+        <v>363.0429949080818</v>
       </c>
       <c r="G5" t="n">
-        <v>504.9109058780833</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="H5" t="n">
-        <v>180.827855444574</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1405114458669</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K5" t="n">
-        <v>546.1228674733287</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L5" t="n">
-        <v>1039.443159191858</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="M5" t="n">
-        <v>1565.266048587713</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="N5" t="n">
-        <v>1565.266048587713</v>
+        <v>1538.617529548891</v>
       </c>
       <c r="O5" t="n">
-        <v>1591.503874579469</v>
+        <v>1538.617529548891</v>
       </c>
       <c r="P5" t="n">
-        <v>1939.691366710991</v>
+        <v>1840.070734790164</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R5" t="n">
-        <v>2124.536926851939</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="S5" t="n">
-        <v>1958.02337179299</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="T5" t="n">
-        <v>1958.02337179299</v>
+        <v>1763.422778776051</v>
       </c>
       <c r="U5" t="n">
-        <v>1702.270642227589</v>
+        <v>1507.67004921065</v>
       </c>
       <c r="V5" t="n">
-        <v>1702.270642227589</v>
+        <v>1165.563239914168</v>
       </c>
       <c r="W5" t="n">
-        <v>1331.271607195876</v>
+        <v>1165.563239914168</v>
       </c>
       <c r="X5" t="n">
-        <v>941.819002128933</v>
+        <v>1165.563239914168</v>
       </c>
       <c r="Y5" t="n">
-        <v>545.3282930495341</v>
+        <v>769.0725308347694</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770698</v>
+        <v>589.715523731998</v>
       </c>
       <c r="C6" t="n">
-        <v>691.202491237162</v>
+        <v>439.0612932920902</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>439.0612932920902</v>
       </c>
       <c r="E6" t="n">
-        <v>424.66703296953</v>
+        <v>302.6148024029779</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526618</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245263</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H6" t="n">
-        <v>91.8779925251272</v>
+        <v>89.88557988671067</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J6" t="n">
-        <v>155.6057207567662</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K6" t="n">
-        <v>475.3448668189926</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="L6" t="n">
-        <v>958.9109527173059</v>
+        <v>637.1793940166629</v>
       </c>
       <c r="M6" t="n">
-        <v>1202.395275544561</v>
+        <v>1138.346177012113</v>
       </c>
       <c r="N6" t="n">
-        <v>1202.395275544561</v>
+        <v>1639.512960007564</v>
       </c>
       <c r="O6" t="n">
-        <v>1718.915558135542</v>
+        <v>1639.512960007564</v>
       </c>
       <c r="P6" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R6" t="n">
-        <v>2124.536926851939</v>
+        <v>2000.999251829177</v>
       </c>
       <c r="S6" t="n">
-        <v>1991.91540998925</v>
+        <v>1866.068574729046</v>
       </c>
       <c r="T6" t="n">
-        <v>1814.931598188158</v>
+        <v>1689.084762927954</v>
       </c>
       <c r="U6" t="n">
-        <v>1814.931598188158</v>
+        <v>1562.790400243086</v>
       </c>
       <c r="V6" t="n">
-        <v>1592.391596559225</v>
+        <v>1340.250398614153</v>
       </c>
       <c r="W6" t="n">
-        <v>1362.274350692512</v>
+        <v>1110.13315274744</v>
       </c>
       <c r="X6" t="n">
-        <v>1172.967273042524</v>
+        <v>920.8260750974521</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.6530561180311</v>
+        <v>741.5118581729594</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>834.741203501409</v>
+        <v>210.703443832633</v>
       </c>
       <c r="C7" t="n">
-        <v>834.741203501409</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="D7" t="n">
-        <v>679.1080904039238</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="E7" t="n">
-        <v>523.5492782631263</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="F7" t="n">
-        <v>366.2233434760993</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="G7" t="n">
-        <v>197.9692895755448</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="H7" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785913</v>
+        <v>917.0693061137993</v>
       </c>
       <c r="T7" t="n">
-        <v>943.9377610785913</v>
+        <v>681.3502542820333</v>
       </c>
       <c r="U7" t="n">
-        <v>943.9377610785913</v>
+        <v>395.9114625239343</v>
       </c>
       <c r="V7" t="n">
-        <v>943.9377610785913</v>
+        <v>395.9114625239343</v>
       </c>
       <c r="W7" t="n">
-        <v>943.9377610785913</v>
+        <v>395.9114625239343</v>
       </c>
       <c r="X7" t="n">
-        <v>943.9377610785913</v>
+        <v>395.9114625239343</v>
       </c>
       <c r="Y7" t="n">
-        <v>834.741203501409</v>
+        <v>395.9114625239343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>968.782859969574</v>
+        <v>1407.425903331219</v>
       </c>
       <c r="C8" t="n">
-        <v>968.782859969574</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="D8" t="n">
-        <v>968.782859969574</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="E8" t="n">
-        <v>566.1993350861185</v>
+        <v>611.6668769506939</v>
       </c>
       <c r="F8" t="n">
-        <v>149.3048966160962</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>503.6092283712875</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
         <v>1049.610128415868</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>1681.888704297768</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V8" t="n">
-        <v>1339.781895001287</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="W8" t="n">
-        <v>968.782859969574</v>
+        <v>1733.155953890406</v>
       </c>
       <c r="X8" t="n">
-        <v>968.782859969574</v>
+        <v>1733.155953890406</v>
       </c>
       <c r="Y8" t="n">
-        <v>968.782859969574</v>
+        <v>1407.425903331219</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="N9" t="n">
-        <v>2134.729194295015</v>
+        <v>1814.990048232789</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>1814.990048232789</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2220.611416949186</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>217.5180880355544</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="E10" t="n">
         <v>47.31297010154361</v>
@@ -4996,16 +4996,16 @@
         <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>734.9288123213937</v>
+        <v>709.31424549452</v>
       </c>
       <c r="W10" t="n">
-        <v>451.5984102525713</v>
+        <v>425.9838434256977</v>
       </c>
       <c r="X10" t="n">
-        <v>217.5180880355544</v>
+        <v>425.9838434256977</v>
       </c>
       <c r="Y10" t="n">
-        <v>217.5180880355544</v>
+        <v>202.8717822423411</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1621.721072044627</v>
+        <v>1580.711427684574</v>
       </c>
       <c r="C11" t="n">
-        <v>1572.977054970837</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="D11" t="n">
         <v>1282.476607474693</v>
       </c>
       <c r="E11" t="n">
-        <v>974.833763878426</v>
+        <v>974.8337638784257</v>
       </c>
       <c r="F11" t="n">
-        <v>652.8800066955921</v>
+        <v>652.8800066955918</v>
       </c>
       <c r="G11" t="n">
-        <v>334.6579324707836</v>
+        <v>334.6579324707833</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5155633244625</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5075,16 +5075,16 @@
         <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2497.845413993114</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W11" t="n">
         <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>1927.275136468835</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y11" t="n">
-        <v>1927.275136468835</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M12" t="n">
-        <v>1122.744905612751</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N12" t="n">
-        <v>1778.52287682331</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O12" t="n">
-        <v>1778.52287682331</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
         <v>2146.089571124861</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551002</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082778</v>
+        <v>417.8199303082783</v>
       </c>
       <c r="D13" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979814</v>
       </c>
       <c r="E13" t="n">
-        <v>296.509367644372</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F13" t="n">
-        <v>234.124114144533</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G13" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311672</v>
       </c>
       <c r="H13" t="n">
-        <v>100.2728717798495</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K13" t="n">
         <v>300.2831496757665</v>
@@ -5212,7 +5212,7 @@
         <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
         <v>1581.729743385192</v>
@@ -5230,19 +5230,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592132</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1642.069506034397</v>
+        <v>1871.211875180718</v>
       </c>
       <c r="C14" t="n">
-        <v>1343.834685824516</v>
+        <v>1572.977054970837</v>
       </c>
       <c r="D14" t="n">
-        <v>1053.334238328372</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E14" t="n">
-        <v>745.6913947321048</v>
+        <v>974.833763878426</v>
       </c>
       <c r="F14" t="n">
-        <v>423.7376375492709</v>
+        <v>652.8800066955921</v>
       </c>
       <c r="G14" t="n">
-        <v>105.5155633244623</v>
+        <v>334.6579324707836</v>
       </c>
       <c r="H14" t="n">
         <v>105.5155633244623</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3066.910003784388</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>3066.910003784388</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="U14" t="n">
-        <v>3066.910003784388</v>
+        <v>3001.540449150954</v>
       </c>
       <c r="V14" t="n">
-        <v>2819.743875775095</v>
+        <v>2754.374321141661</v>
       </c>
       <c r="W14" t="n">
-        <v>2543.685522030571</v>
+        <v>2478.315967397137</v>
       </c>
       <c r="X14" t="n">
-        <v>2249.173598250816</v>
+        <v>2478.315967397137</v>
       </c>
       <c r="Y14" t="n">
-        <v>1947.623570458605</v>
+        <v>2176.765939604927</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
         <v>2380.454662679751</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669551001</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082778</v>
+        <v>417.8199303082777</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979809</v>
+        <v>357.1274984979808</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443717</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445331</v>
+        <v>234.124114144533</v>
       </c>
       <c r="G16" t="n">
         <v>160.8107415311669</v>
@@ -5434,16 +5434,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362511</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757663</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791393</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469767</v>
+        <v>836.8050913469765</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
@@ -5455,13 +5455,13 @@
         <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R16" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T16" t="n">
         <v>1400.589220329742</v>
@@ -5473,13 +5473,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852099</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553813</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592132</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5492,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D17" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G17" t="n">
         <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5549,10 +5549,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5604,13 +5604,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1863.93438008877</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O18" t="n">
-        <v>2380.454662679751</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5677,22 +5677,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803433</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5771,13 +5771,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,16 +5786,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5829,19 +5829,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>137.1794355089966</v>
       </c>
       <c r="K21" t="n">
-        <v>84.60386270860994</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="L21" t="n">
-        <v>568.1699486069232</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="M21" t="n">
-        <v>568.1699486069232</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5914,16 +5914,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>683.1426636655136</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P22" t="n">
         <v>1094.779966106229</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>568.1699486069232</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M24" t="n">
-        <v>568.1699486069232</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2181.928177194563</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2181.928177194563</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,49 +6121,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229942</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222413</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.22278621427</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218595</v>
+        <v>986.0794951218605</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390258</v>
+        <v>664.1257379390266</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,7 +6224,7 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
         <v>670.0483496134135</v>
@@ -6242,34 +6242,34 @@
         <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6303,16 +6303,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>73.36485894755026</v>
+        <v>670.0459270655908</v>
       </c>
       <c r="M27" t="n">
-        <v>579.4156798503576</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985354</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414158</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.755098887807</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879683</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
         <v>111.518603023284</v>
@@ -6388,46 +6388,46 @@
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225743</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904117</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
         <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988167</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026484</v>
       </c>
     </row>
     <row r="29">
@@ -6446,13 +6446,13 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,22 +6461,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884792</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658946</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
         <v>3334.531518508978</v>
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.009121778567</v>
       </c>
       <c r="K30" t="n">
-        <v>95.84959395204436</v>
+        <v>186.009121778567</v>
       </c>
       <c r="L30" t="n">
-        <v>579.4156798503576</v>
+        <v>186.009121778567</v>
       </c>
       <c r="M30" t="n">
-        <v>579.4156798503576</v>
+        <v>813.7807714052482</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985353</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414159</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232842</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
@@ -6622,49 +6622,49 @@
         <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084638</v>
+        <v>1719.814764781096</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985472</v>
+        <v>1443.841115634092</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600044</v>
+        <v>1175.601839200824</v>
       </c>
       <c r="E32" t="n">
-        <v>918.246771114493</v>
+        <v>890.2201666674337</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423748</v>
+        <v>590.5275805474762</v>
       </c>
       <c r="G32" t="n">
-        <v>309.576185928282</v>
+        <v>294.5666773855442</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267653</v>
+        <v>87.68547930209927</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304544</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="J32" t="n">
-        <v>321.6829079322594</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>707.1820800376906</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1200.502371756219</v>
+        <v>1178.372170887746</v>
       </c>
       <c r="M32" t="n">
-        <v>1746.5032718008</v>
+        <v>1724.373070932327</v>
       </c>
       <c r="N32" t="n">
-        <v>2274.314555438262</v>
+        <v>2252.184354569789</v>
       </c>
       <c r="O32" t="n">
-        <v>2714.354156330591</v>
+        <v>2692.223955462117</v>
       </c>
       <c r="P32" t="n">
-        <v>3062.541648462112</v>
+        <v>3065.032496333758</v>
       </c>
       <c r="Q32" t="n">
-        <v>3355.877716243447</v>
+        <v>3249.878056474707</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152272</v>
+        <v>3327.510737231445</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491227</v>
+        <v>3278.19903452256</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448548</v>
+        <v>3171.900284432042</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.44439528105</v>
+        <v>3033.349407216705</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382473</v>
+        <v>2808.444450270288</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748665</v>
+        <v>2554.647267588641</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079625</v>
+        <v>2282.396514871762</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398131</v>
+        <v>2003.107658142428</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230764</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831686</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.1654127046489</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155366</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.2272977705329</v>
+        <v>204.2348851321164</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304544</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="J33" t="n">
-        <v>68.54262738304544</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="K33" t="n">
-        <v>385.3973640682376</v>
+        <v>386.2893608068554</v>
       </c>
       <c r="L33" t="n">
-        <v>868.9634499665508</v>
+        <v>869.8554467051686</v>
       </c>
       <c r="M33" t="n">
-        <v>1496.735099593232</v>
+        <v>1497.62709633185</v>
       </c>
       <c r="N33" t="n">
-        <v>2152.513070803791</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="O33" t="n">
-        <v>2152.513070803791</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590201</v>
+        <v>341.6872565554784</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229134</v>
+        <v>288.6839909715324</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233322</v>
+        <v>250.252730224112</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804388</v>
+        <v>211.8957704333793</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913158</v>
+        <v>171.7716879964171</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886654</v>
+        <v>120.7194864459274</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806348</v>
+        <v>82.4427877574862</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304544</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="J34" t="n">
-        <v>147.2593924259937</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="K34" t="n">
-        <v>229.0944335359356</v>
+        <v>148.3852558545708</v>
       </c>
       <c r="L34" t="n">
-        <v>501.7125810501211</v>
+        <v>427.382431216669</v>
       </c>
       <c r="M34" t="n">
-        <v>688.0041593883851</v>
+        <v>627.5238173231628</v>
       </c>
       <c r="N34" t="n">
-        <v>979.68430105998</v>
+        <v>810.713451354372</v>
       </c>
       <c r="O34" t="n">
-        <v>1250.879575742074</v>
+        <v>973.4182183960801</v>
       </c>
       <c r="P34" t="n">
-        <v>1429.162635022244</v>
+        <v>1208.163919660957</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392295</v>
+        <v>1326.455651519307</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422776</v>
+        <v>1319.756514501948</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.25436700323</v>
+        <v>1234.142283034563</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569368</v>
+        <v>1115.625083552861</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209173</v>
+        <v>947.3881441448273</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279011</v>
+        <v>798.6106513157163</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569827</v>
+        <v>632.4821015969587</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378699</v>
+        <v>515.6036317300067</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524173</v>
+        <v>409.6934228967149</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -6965,19 +6965,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7014,22 +7014,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M36" t="n">
-        <v>1606.310991511064</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N36" t="n">
-        <v>2146.089571124861</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7111,10 +7111,10 @@
         <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599515</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7254,13 +7254,13 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7333,25 +7333,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>273.0105384364859</v>
+        <v>149.5338114222409</v>
       </c>
       <c r="L40" t="n">
-        <v>437.1381783102858</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485498</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1586.170216899327</v>
+        <v>1498.487087451242</v>
       </c>
       <c r="C41" t="n">
-        <v>1290.43596739239</v>
+        <v>1269.973753959969</v>
       </c>
       <c r="D41" t="n">
-        <v>1002.436090599191</v>
+        <v>1269.973753959969</v>
       </c>
       <c r="E41" t="n">
-        <v>697.2938177058684</v>
+        <v>964.8314810666466</v>
       </c>
       <c r="F41" t="n">
-        <v>377.8406312259794</v>
+        <v>645.3782945867574</v>
       </c>
       <c r="G41" t="n">
-        <v>62.11912770411573</v>
+        <v>329.6567910648937</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411573</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L41" t="n">
         <v>1059.071548358934</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205776</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>2998.507861134593</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="V41" t="n">
-        <v>2753.842303828245</v>
+        <v>2666.159174380161</v>
       </c>
       <c r="W41" t="n">
-        <v>2480.284520786666</v>
+        <v>2392.601391338582</v>
       </c>
       <c r="X41" t="n">
-        <v>2188.273167709856</v>
+        <v>2100.590038261772</v>
       </c>
       <c r="Y41" t="n">
-        <v>1889.22371062059</v>
+        <v>1801.540581172506</v>
       </c>
     </row>
     <row r="42">
@@ -7494,16 +7494,16 @@
         <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>862.5399502876207</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M42" t="n">
-        <v>1490.311599914302</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N42" t="n">
-        <v>2146.089571124861</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O42" t="n">
-        <v>2146.089571124861</v>
+        <v>2009.716291882317</v>
       </c>
       <c r="P42" t="n">
         <v>2146.089571124861</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344865</v>
+        <v>475.5803720344866</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906089</v>
+        <v>402.816506090609</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832568</v>
+        <v>344.6246449832569</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325925</v>
+        <v>286.5070848325926</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356986</v>
+        <v>226.6224020356987</v>
       </c>
       <c r="G43" t="n">
         <v>155.8096001252773</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690447</v>
+        <v>97.77230107690448</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822076</v>
+        <v>68.23195016744091</v>
       </c>
       <c r="K43" t="n">
-        <v>245.5691623529121</v>
+        <v>245.5691623529123</v>
       </c>
       <c r="L43" t="n">
-        <v>505.1989733022414</v>
+        <v>505.1989733022416</v>
       </c>
       <c r="M43" t="n">
-        <v>786.9927227160349</v>
+        <v>786.9927227160351</v>
       </c>
       <c r="N43" t="n">
         <v>1065.684527822774</v>
@@ -7594,7 +7594,7 @@
         <v>1611.73443286041</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.359601033092</v>
+        <v>1506.359601033093</v>
       </c>
       <c r="T43" t="n">
         <v>1368.08180119146</v>
@@ -7606,13 +7606,13 @@
         <v>1011.546168234451</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557618</v>
+        <v>825.657018155762</v>
       </c>
       <c r="X43" t="n">
-        <v>689.017947928878</v>
+        <v>689.0179479288782</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356545</v>
+        <v>563.3471387356548</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1627.066081816728</v>
+        <v>1853.707880260105</v>
       </c>
       <c r="C44" t="n">
-        <v>1331.331832309792</v>
+        <v>1557.973630753168</v>
       </c>
       <c r="D44" t="n">
-        <v>1043.331955516593</v>
+        <v>1269.973753959969</v>
       </c>
       <c r="E44" t="n">
-        <v>738.1896826232705</v>
+        <v>964.8314810666468</v>
       </c>
       <c r="F44" t="n">
-        <v>418.7364961433812</v>
+        <v>645.3782945867576</v>
       </c>
       <c r="G44" t="n">
-        <v>103.0149926215175</v>
+        <v>329.6567910648939</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0149926215175</v>
+        <v>103.0149926215177</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L44" t="n">
         <v>1059.071548358934</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3039.403726051995</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>3039.403726051995</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U44" t="n">
-        <v>3039.403726051995</v>
+        <v>2947.644907630508</v>
       </c>
       <c r="V44" t="n">
-        <v>2794.738168745647</v>
+        <v>2729.368614112213</v>
       </c>
       <c r="W44" t="n">
-        <v>2521.180385704068</v>
+        <v>2455.810831070634</v>
       </c>
       <c r="X44" t="n">
-        <v>2229.169032627257</v>
+        <v>2455.810831070634</v>
       </c>
       <c r="Y44" t="n">
-        <v>1930.119575537992</v>
+        <v>2156.761373981368</v>
       </c>
     </row>
     <row r="45">
@@ -7728,22 +7728,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L45" t="n">
-        <v>62.11912770411553</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344865</v>
+        <v>475.5803720344866</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906089</v>
+        <v>402.816506090609</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832568</v>
+        <v>344.6246449832569</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325925</v>
+        <v>286.5070848325926</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356986</v>
+        <v>226.6224020356987</v>
       </c>
       <c r="G46" t="n">
         <v>155.8096001252773</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690447</v>
+        <v>97.77230107690448</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>127.8475561822076</v>
+        <v>127.8475561822075</v>
       </c>
       <c r="K46" t="n">
-        <v>305.184768367679</v>
+        <v>305.1847683676789</v>
       </c>
       <c r="L46" t="n">
-        <v>564.8145793170083</v>
+        <v>564.8145793170082</v>
       </c>
       <c r="M46" t="n">
-        <v>786.9927227160349</v>
+        <v>846.6083287308018</v>
       </c>
       <c r="N46" t="n">
-        <v>1065.684527822774</v>
+        <v>1125.30013383754</v>
       </c>
       <c r="O46" t="n">
         <v>1323.891465940011</v>
@@ -7831,7 +7831,7 @@
         <v>1611.73443286041</v>
       </c>
       <c r="S46" t="n">
-        <v>1506.359601033092</v>
+        <v>1506.359601033093</v>
       </c>
       <c r="T46" t="n">
         <v>1368.08180119146</v>
@@ -7843,13 +7843,13 @@
         <v>1011.546168234451</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557618</v>
+        <v>825.657018155762</v>
       </c>
       <c r="X46" t="n">
-        <v>689.017947928878</v>
+        <v>689.0179479288782</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356545</v>
+        <v>563.3471387356548</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7985,13 +7985,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>680.859283310712</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>163.656769330585</v>
       </c>
       <c r="O2" t="n">
-        <v>322.1775736873132</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8055,25 +8055,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>511.3170210278593</v>
+        <v>598.61619578209</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>591.6011865869448</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216671</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>336.1263228912831</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8222,16 +8222,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>680.859283310712</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>655.3475650705623</v>
       </c>
       <c r="O5" t="n">
-        <v>176.0666919612241</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>454.799634353322</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8295,22 +8295,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>338.3308824808824</v>
+        <v>598.61619578209</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>591.6011865869448</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>476.3796627218894</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>155.1237765063188</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8532,7 +8532,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8544,13 +8544,13 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>325.939387961783</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>237.4902623761101</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8781,10 +8781,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>168.5060516210921</v>
       </c>
       <c r="P12" t="n">
-        <v>458.3628540128008</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>327.7205688679246</v>
@@ -9003,25 +9003,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>569.9919810238538</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9252,16 +9252,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>345.5977578821532</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>110.5765941352903</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9419,7 +9419,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294519</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9477,22 +9477,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>158.2629500655365</v>
       </c>
       <c r="K21" t="n">
-        <v>112.3087888732267</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9714,16 +9714,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>163.9964000092958</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
@@ -9732,10 +9732,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>291.5199566763059</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,19 +9951,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>603.549567405683</v>
+        <v>663.2434089132773</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10188,16 +10188,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.226541001027</v>
       </c>
       <c r="K30" t="n">
-        <v>112.3087888732264</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10428,7 +10428,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>409.6522249143355</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
@@ -10437,13 +10437,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>335.1420048916687</v>
       </c>
       <c r="O33" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10662,25 +10662,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N36" t="n">
-        <v>630.6030013529515</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10902,16 +10902,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>515.2544481366739</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11142,19 +11142,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>575.5973938481089</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>224.834151932995</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11376,25 +11376,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>579.1898666384017</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>257.9349795978371</v>
       </c>
       <c r="C11" t="n">
-        <v>246.9958951047301</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.20122742686971</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>126.6892961352003</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -25628,10 +25628,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>66.54870685550662</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>285.1198780252671</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589424</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822798</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812811</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>124.7987569459457</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>50.35432396904473</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589424</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,22 +25913,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>2.494447475884726</v>
+        <v>68.38158003812812</v>
       </c>
       <c r="T44" t="n">
         <v>124.7987569459457</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>26.12537115017271</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>289.0912395460419</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>525375.9803180385</v>
+        <v>525375.9803180384</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>525375.9803180384</v>
+        <v>525375.9803180385</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>527666.7443870087</v>
+        <v>527666.7443870086</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>703295.4945640916</v>
+        <v>703295.4945640913</v>
       </c>
       <c r="C2" t="n">
         <v>703295.4945640912</v>
@@ -26320,40 +26320,40 @@
         <v>703295.4945640913</v>
       </c>
       <c r="E2" t="n">
-        <v>660956.8784646287</v>
+        <v>660956.8784646288</v>
       </c>
       <c r="F2" t="n">
-        <v>660956.8784646284</v>
+        <v>660956.8784646282</v>
       </c>
       <c r="G2" t="n">
         <v>703295.4945640907</v>
       </c>
       <c r="H2" t="n">
+        <v>703295.494564091</v>
+      </c>
+      <c r="I2" t="n">
         <v>703295.4945640909</v>
       </c>
-      <c r="I2" t="n">
-        <v>703295.4945640907</v>
-      </c>
       <c r="J2" t="n">
-        <v>703295.4945640911</v>
+        <v>703295.4945640912</v>
       </c>
       <c r="K2" t="n">
-        <v>703295.4945640911</v>
+        <v>703295.494564091</v>
       </c>
       <c r="L2" t="n">
-        <v>703295.4945640918</v>
+        <v>703295.494564091</v>
       </c>
       <c r="M2" t="n">
-        <v>703295.4945640909</v>
+        <v>703295.494564091</v>
       </c>
       <c r="N2" t="n">
         <v>703295.4945640906</v>
       </c>
       <c r="O2" t="n">
-        <v>663838.8074546234</v>
+        <v>663838.8074546235</v>
       </c>
       <c r="P2" t="n">
-        <v>663838.8074546235</v>
+        <v>663838.8074546233</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343506</v>
+        <v>169649.0058765498</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602665</v>
+        <v>26460.41160941825</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377122</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301433</v>
+        <v>29094.95587301434</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469665</v>
+        <v>215329.5897923933</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670119</v>
+        <v>46725.8033548125</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436849</v>
+        <v>43782.97194555665</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015681</v>
+        <v>18983.55983015678</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170591.5484883816</v>
+        <v>177303.7227646047</v>
       </c>
       <c r="C4" t="n">
-        <v>170591.5484883816</v>
+        <v>177303.7227646047</v>
       </c>
       <c r="D4" t="n">
-        <v>154346.0890704043</v>
+        <v>154346.0890704044</v>
       </c>
       <c r="E4" t="n">
         <v>97239.09137183774</v>
       </c>
       <c r="F4" t="n">
-        <v>97239.09137183773</v>
+        <v>97239.09137183774</v>
       </c>
       <c r="G4" t="n">
         <v>121843.4120153197</v>
       </c>
       <c r="H4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="I4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="J4" t="n">
         <v>122593.9044797028</v>
@@ -26445,7 +26445,7 @@
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122271.0498250416</v>
+        <v>122137.6552159869</v>
       </c>
       <c r="M4" t="n">
         <v>121843.4120153197</v>
@@ -26454,10 +26454,10 @@
         <v>121843.4120153197</v>
       </c>
       <c r="O4" t="n">
-        <v>98913.70727082904</v>
+        <v>98913.70727082901</v>
       </c>
       <c r="P4" t="n">
-        <v>98913.70727082904</v>
+        <v>98913.70727082901</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814947</v>
+        <v>64406.32768295291</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814947</v>
+        <v>64406.32768295291</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>55112.2895089091</v>
+        <v>55112.28950890911</v>
       </c>
       <c r="F5" t="n">
-        <v>55112.2895089091</v>
+        <v>55112.28950890911</v>
       </c>
       <c r="G5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446766</v>
+        <v>60332.67530588339</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>288788.0876532099</v>
+        <v>291936.4382399839</v>
       </c>
       <c r="C6" t="n">
-        <v>466783.3847875602</v>
+        <v>461585.4441165336</v>
       </c>
       <c r="D6" t="n">
-        <v>460639.8258304872</v>
+        <v>452903.5366070956</v>
       </c>
       <c r="E6" t="n">
-        <v>378152.5664461696</v>
+        <v>378044.0058920686</v>
       </c>
       <c r="F6" t="n">
-        <v>508605.4975838815</v>
+        <v>508496.9370297802</v>
       </c>
       <c r="G6" t="n">
         <v>494187.3573602371</v>
       </c>
       <c r="H6" t="n">
+        <v>523282.3132332516</v>
+      </c>
+      <c r="I6" t="n">
         <v>523282.3132332515</v>
       </c>
-      <c r="I6" t="n">
-        <v>523282.3132332514</v>
-      </c>
       <c r="J6" t="n">
-        <v>295196.6698835022</v>
+        <v>301712.9550380757</v>
       </c>
       <c r="K6" t="n">
-        <v>517042.5448304688</v>
+        <v>517042.5448304687</v>
       </c>
       <c r="L6" t="n">
-        <v>478148.1978978813</v>
+        <v>474099.3606874081</v>
       </c>
       <c r="M6" t="n">
-        <v>480551.036298883</v>
+        <v>479499.3412876949</v>
       </c>
       <c r="N6" t="n">
         <v>523282.3132332513</v>
       </c>
       <c r="O6" t="n">
-        <v>490621.1325710868</v>
+        <v>490519.9615784987</v>
       </c>
       <c r="P6" t="n">
-        <v>509604.6924012438</v>
+        <v>509503.5214086552</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129848</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129848</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880681</v>
+        <v>831.8776843078613</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126791</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304856</v>
+        <v>57.62257963304853</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087649</v>
+        <v>58.40725419351563</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165935</v>
+        <v>14.33013548902022</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769601</v>
+        <v>23.72944978769597</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129848</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455631023</v>
+        <v>85.18305253651693</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559191</v>
+        <v>646.8007142757123</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.783224045525</v>
+        <v>129.6883820257318</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126791</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304856</v>
+        <v>57.62257963304853</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129848</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455631023</v>
+        <v>85.18305253651693</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27388,16 +27388,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.1514811819956</v>
       </c>
       <c r="Y2" t="n">
-        <v>244.5895625002381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>76.66721019408189</v>
+        <v>57.11253113146262</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,10 +27546,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -27585,16 +27585,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>8.336108197551823</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27603,7 +27603,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>156.7083642816612</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>380.3010983770835</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>89.7119056375119</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>2.28606863506721</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>82.93109283012527</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27822,13 +27822,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>176.1606410761645</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -27840,7 +27840,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>112.7763485701126</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>308.0591207074697</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>70.05305193500953</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28068,16 +28068,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>51.62668320889867</v>
+        <v>26.26826205029371</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J16" t="n">
-        <v>93.9912744743162</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431607</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="17">
@@ -28606,7 +28606,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="R17" t="n">
         <v>37.61298457733328</v>
@@ -28749,25 +28749,25 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>128.2979821082774</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28986,16 +28986,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5.636002634528467</v>
+      </c>
+      <c r="O22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M22" t="n">
-        <v>5.636002634529177</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29217,17 +29217,17 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>35.71049010668825</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>5.636002634528545</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29296,10 +29296,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>93.99127447431646</v>
@@ -29314,13 +29314,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>30.27223765901277</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>86.65052755599532</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>93.99127447431646</v>
@@ -29533,22 +29533,22 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>30.2722376590126</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901221</v>
       </c>
       <c r="P29" t="n">
         <v>93.99127447431646</v>
@@ -29746,37 +29746,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J32" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>26.78466270501963</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29788,34 +29788,34 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>24.86974620214016</v>
       </c>
       <c r="Q32" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="S32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J34" t="n">
-        <v>109.586371353925</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>13.98970481639367</v>
       </c>
       <c r="N34" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>58.99686212484022</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="R34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="S34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="35">
@@ -30183,13 +30183,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>128.2979821082778</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30405,28 +30405,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
+        <v>5.636002634528808</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
       <c r="R40" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023183</v>
+        <v>36.24905561693219</v>
       </c>
       <c r="K43" t="n">
-        <v>36.24905561693197</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="J46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="M46" t="n">
-        <v>36.24905561693186</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023183</v>
+        <v>36.24905561693217</v>
       </c>
       <c r="P46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023183</v>
+        <v>96.46683947023182</v>
       </c>
     </row>
   </sheetData>
@@ -31780,7 +31780,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34705,13 +34705,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>531.1342317129848</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>14.53827799280088</v>
       </c>
       <c r="O2" t="n">
-        <v>172.6137362632168</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>418.9298989785474</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>249.0429580719684</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34942,16 +34942,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>531.1342317129848</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="O5" t="n">
-        <v>26.50285453712766</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>304.4981871123968</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35015,22 +35015,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>245.9437604315705</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>389.2962979025747</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>5.39872490859157</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35252,7 +35252,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35264,13 +35264,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>233.2518290728942</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>146.5021092201961</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35501,10 +35501,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>75.81849273220321</v>
       </c>
       <c r="P12" t="n">
-        <v>371.2794891934861</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>236.7324157120106</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
@@ -35583,10 +35583,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P13" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215713</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
@@ -35811,7 +35811,7 @@
         <v>259.7767692963365</v>
       </c>
       <c r="M16" t="n">
-        <v>282.1645859271084</v>
+        <v>282.164585927108</v>
       </c>
       <c r="N16" t="n">
         <v>279.0313088492753</v>
@@ -35820,10 +35820,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P16" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35972,16 +35972,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>260.2256450279866</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>23.49322931597565</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,25 +36045,25 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>171.421497456549</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>249.3850182462355</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110598</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>75.81849273220313</v>
       </c>
       <c r="K21" t="n">
-        <v>22.71185353989334</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36282,16 +36282,16 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>193.8093140873211</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094873</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>73.93605315237758</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
@@ -36452,10 +36452,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>200.5318035203919</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.636002634529181</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36534,7 +36534,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681028</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
@@ -36610,13 +36610,13 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>381.9767751656005</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>273.3632145670545</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>511.1624453563711</v>
+        <v>570.8562868639655</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272236</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>474.7566830047985</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>113.7820836676936</v>
       </c>
       <c r="K30" t="n">
-        <v>22.71185353989303</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
@@ -36929,7 +36929,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>255.697253080014</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>389.3931031367993</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>614.3331587947752</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37084,13 +37084,13 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>376.5742837087279</v>
       </c>
       <c r="Q32" t="n">
-        <v>296.2990583649841</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>71.97338677659175</v>
+        <v>78.41684924923088</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>320.0552895810021</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
@@ -37157,13 +37157,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>249.769892037502</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
         <v>236.7324157120106</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.51188388176595</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>275.371866175945</v>
+        <v>281.8153286485841</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>202.1630162691856</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6264057288838</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>273.9346208910039</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>180.0838982627984</v>
+        <v>237.1168699645223</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>119.4865978367166</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N36" t="n">
-        <v>545.2308884987849</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37479,13 +37479,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>249.385018246236</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37622,16 +37622,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>213.0216270023944</v>
+        <v>88.29766032133878</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P41" t="n">
         <v>351.7045375065877</v>
@@ -37862,19 +37862,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>485.5370469911907</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>137.7507871136803</v>
       </c>
       <c r="Q42" t="n">
         <v>236.7324157120106</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807277</v>
+        <v>6.174568144773118</v>
       </c>
       <c r="K43" t="n">
-        <v>118.9107133037419</v>
+        <v>179.1284971570418</v>
       </c>
       <c r="L43" t="n">
         <v>262.2523342922518</v>
@@ -37956,7 +37956,7 @@
         <v>217.55387560819</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038432</v>
+        <v>99.9236034803843</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>486.5023077495127</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.39235199807277</v>
+        <v>66.39235199807274</v>
       </c>
       <c r="K46" t="n">
         <v>179.1284971570418</v>
@@ -38181,19 +38181,19 @@
         <v>262.2523342922518</v>
       </c>
       <c r="M46" t="n">
-        <v>224.4223670697238</v>
+        <v>284.6401509230238</v>
       </c>
       <c r="N46" t="n">
         <v>281.5068738451906</v>
       </c>
       <c r="O46" t="n">
-        <v>260.8150890073107</v>
+        <v>200.597305154011</v>
       </c>
       <c r="P46" t="n">
         <v>217.55387560819</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.92360348038432</v>
+        <v>99.9236034803843</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
